--- a/VREG.xlsx
+++ b/VREG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\Parts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Documents\Github\AtomParts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -38,9 +38,6 @@
     <t>QTY</t>
   </si>
   <si>
-    <t>NCP1402 5V</t>
-  </si>
-  <si>
     <t>TPS61202</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>LINEAR</t>
   </si>
   <si>
-    <t>NCP1402 3.3V</t>
-  </si>
-  <si>
     <t>LD1117S50TR</t>
   </si>
   <si>
@@ -179,9 +173,6 @@
     <t>SOT-223</t>
   </si>
   <si>
-    <t>LT1302CS8-5#PBF</t>
-  </si>
-  <si>
     <t>LT1302</t>
   </si>
   <si>
@@ -200,7 +191,94 @@
     <t>MIC5205-3.3YM5-TR</t>
   </si>
   <si>
-    <t>SOT23-5</t>
+    <t>DIP-8</t>
+  </si>
+  <si>
+    <t>NCP1402SN33T1</t>
+  </si>
+  <si>
+    <t>NCP1402SN50T1</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>SPX1117</t>
+  </si>
+  <si>
+    <t>1.8V @ 800MA</t>
+  </si>
+  <si>
+    <t>SPX1117M3-L-1-8</t>
+  </si>
+  <si>
+    <t>MC34063</t>
+  </si>
+  <si>
+    <t>MC34063ADG</t>
+  </si>
+  <si>
+    <t>ADJ @ 1.5A</t>
+  </si>
+  <si>
+    <t>MC34063EBD</t>
+  </si>
+  <si>
+    <t>TPS61200</t>
+  </si>
+  <si>
+    <t>TPS61200DRCT</t>
+  </si>
+  <si>
+    <t>VSON-10</t>
+  </si>
+  <si>
+    <t>ADJ @ 1.2A</t>
+  </si>
+  <si>
+    <t>ADJ @ 2A</t>
+  </si>
+  <si>
+    <t>LT1302CS8</t>
+  </si>
+  <si>
+    <t>LT1302CS8-5</t>
+  </si>
+  <si>
+    <t>NCP1402</t>
+  </si>
+  <si>
+    <t>TPS61230DRCR</t>
+  </si>
+  <si>
+    <t>TPS61230</t>
+  </si>
+  <si>
+    <t>ADJ @ 4A</t>
+  </si>
+  <si>
+    <t>SC189</t>
+  </si>
+  <si>
+    <t>SC189ZSKTRT</t>
+  </si>
+  <si>
+    <t>3.3V @ 1.5A</t>
+  </si>
+  <si>
+    <t>BUCK</t>
+  </si>
+  <si>
+    <t>MCP1802T-3002I/OT</t>
+  </si>
+  <si>
+    <t>MCP1802</t>
+  </si>
+  <si>
+    <t>3.0V @ 300MA</t>
+  </si>
+  <si>
+    <t>LT1302CN8-5</t>
   </si>
 </sst>
 </file>
@@ -472,10 +550,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6" headerRowCellStyle="Explanatory Text">
-  <autoFilter ref="A1:F18"/>
-  <sortState ref="A2:F15">
-    <sortCondition ref="F1:F16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F27" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6" headerRowCellStyle="Explanatory Text">
+  <autoFilter ref="A1:F27"/>
+  <sortState ref="A2:F27">
+    <sortCondition ref="A1:A27"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="5"/>
@@ -752,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -783,268 +861,289 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D2" s="3">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="3">
-        <v>10</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
+      <c r="A7" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="3">
-        <v>50</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
+      <c r="A9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>84</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="A11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="8">
         <v>4</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
+      <c r="E13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D15" s="3">
         <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D16" s="3">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1054,37 +1153,208 @@
       <c r="B17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>51</v>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D17" s="8">
         <v>2</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>12</v>
+      <c r="E17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="8">
-        <v>2</v>
+      <c r="D18" s="3">
+        <v>20</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="3">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="8">
+        <v>9</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="8">
+        <v>3</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="3">
+        <v>20</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/VREG.xlsx
+++ b/VREG.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="127">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Part Number</t>
   </si>
   <si>
@@ -44,9 +42,6 @@
     <t>TPS61202DRCT</t>
   </si>
   <si>
-    <t>MIC4575 3.3WU</t>
-  </si>
-  <si>
     <t xml:space="preserve">MIC4575-3.3WU </t>
   </si>
   <si>
@@ -86,33 +81,15 @@
     <t>FAN1616</t>
   </si>
   <si>
-    <t xml:space="preserve">ADJ @ 500MA </t>
-  </si>
-  <si>
-    <t>3.3V @ 900MA</t>
-  </si>
-  <si>
-    <t>3.3V @ 200MA</t>
-  </si>
-  <si>
-    <t>3.3V @ 1.7A</t>
-  </si>
-  <si>
     <t>AP7331</t>
   </si>
   <si>
-    <t xml:space="preserve">ADJ @ 300MA </t>
-  </si>
-  <si>
     <t>AP7331-WG-7</t>
   </si>
   <si>
     <t>SPX3819M5-L-3-3/TR</t>
   </si>
   <si>
-    <t>3.3V @ 500MA</t>
-  </si>
-  <si>
     <t>SPX3819</t>
   </si>
   <si>
@@ -125,15 +102,9 @@
     <t>AMS1117</t>
   </si>
   <si>
-    <t>3.3V @ 1A</t>
-  </si>
-  <si>
     <t>AMS1117-3.3</t>
   </si>
   <si>
-    <t>OTHER</t>
-  </si>
-  <si>
     <t>SOT-23</t>
   </si>
   <si>
@@ -143,30 +114,12 @@
     <t>MCP1824</t>
   </si>
   <si>
-    <t>3.3V @ 300MA</t>
-  </si>
-  <si>
     <t xml:space="preserve">XC6206 </t>
   </si>
   <si>
     <t>XC6206P332</t>
   </si>
   <si>
-    <t>5.0V @ 100MA</t>
-  </si>
-  <si>
-    <t>5.0V @ 800MA</t>
-  </si>
-  <si>
-    <t>5.0V @ 200MA</t>
-  </si>
-  <si>
-    <t>5.0V @ 1.2A</t>
-  </si>
-  <si>
-    <t>2.5V @ 1A</t>
-  </si>
-  <si>
     <t>AMS1117-2.5</t>
   </si>
   <si>
@@ -176,18 +129,12 @@
     <t>LT1302</t>
   </si>
   <si>
-    <t>5.0V @ 2A</t>
-  </si>
-  <si>
     <t>SOIC-8</t>
   </si>
   <si>
     <t>MIC5205</t>
   </si>
   <si>
-    <t>3.3V @ 150MA</t>
-  </si>
-  <si>
     <t>MIC5205-3.3YM5-TR</t>
   </si>
   <si>
@@ -206,9 +153,6 @@
     <t>SPX1117</t>
   </si>
   <si>
-    <t>1.8V @ 800MA</t>
-  </si>
-  <si>
     <t>SPX1117M3-L-1-8</t>
   </si>
   <si>
@@ -218,9 +162,6 @@
     <t>MC34063ADG</t>
   </si>
   <si>
-    <t>ADJ @ 1.5A</t>
-  </si>
-  <si>
     <t>MC34063EBD</t>
   </si>
   <si>
@@ -230,15 +171,6 @@
     <t>TPS61200DRCT</t>
   </si>
   <si>
-    <t>VSON-10</t>
-  </si>
-  <si>
-    <t>ADJ @ 1.2A</t>
-  </si>
-  <si>
-    <t>ADJ @ 2A</t>
-  </si>
-  <si>
     <t>LT1302CS8</t>
   </si>
   <si>
@@ -254,18 +186,12 @@
     <t>TPS61230</t>
   </si>
   <si>
-    <t>ADJ @ 4A</t>
-  </si>
-  <si>
     <t>SC189</t>
   </si>
   <si>
     <t>SC189ZSKTRT</t>
   </si>
   <si>
-    <t>3.3V @ 1.5A</t>
-  </si>
-  <si>
     <t>BUCK</t>
   </si>
   <si>
@@ -275,10 +201,211 @@
     <t>MCP1802</t>
   </si>
   <si>
-    <t>3.0V @ 300MA</t>
-  </si>
-  <si>
     <t>LT1302CN8-5</t>
+  </si>
+  <si>
+    <t>MAX6329</t>
+  </si>
+  <si>
+    <t>MAX6329SLUT+T</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>300MA</t>
+  </si>
+  <si>
+    <t>500MA</t>
+  </si>
+  <si>
+    <t>100MA</t>
+  </si>
+  <si>
+    <t>800MA</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>1.5A</t>
+  </si>
+  <si>
+    <t>1.7A</t>
+  </si>
+  <si>
+    <t>150MA</t>
+  </si>
+  <si>
+    <t>200MA</t>
+  </si>
+  <si>
+    <t>1.2A</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>900MA</t>
+  </si>
+  <si>
+    <t>2.5V</t>
+  </si>
+  <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>ADJ</t>
+  </si>
+  <si>
+    <t>5.0V</t>
+  </si>
+  <si>
+    <t>3.0V</t>
+  </si>
+  <si>
+    <t>1.8V</t>
+  </si>
+  <si>
+    <t>MIC4575</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>LD1117STR</t>
+  </si>
+  <si>
+    <t>LD1117DT50CTR</t>
+  </si>
+  <si>
+    <t>DPAK</t>
+  </si>
+  <si>
+    <t>TPS61201DRCT</t>
+  </si>
+  <si>
+    <t>TPS61201</t>
+  </si>
+  <si>
+    <t>NCP699SN25T1G</t>
+  </si>
+  <si>
+    <t>NCP699</t>
+  </si>
+  <si>
+    <t>PQ1KA183MZPH</t>
+  </si>
+  <si>
+    <t>PQ1KA</t>
+  </si>
+  <si>
+    <t>MC34063ADRJR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-WDFN </t>
+  </si>
+  <si>
+    <t>10-VFDFN</t>
+  </si>
+  <si>
+    <t>SPX1117M3-L-3-3</t>
+  </si>
+  <si>
+    <t>TPS63000DRCR</t>
+  </si>
+  <si>
+    <t>TPS63000</t>
+  </si>
+  <si>
+    <t>1.6A</t>
+  </si>
+  <si>
+    <t>TPS61027</t>
+  </si>
+  <si>
+    <t>TPS61027DRCR</t>
+  </si>
+  <si>
+    <t>TPS62086</t>
+  </si>
+  <si>
+    <t>TPS62086RLTR</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>7-VFDN</t>
+  </si>
+  <si>
+    <t>UA78L10</t>
+  </si>
+  <si>
+    <t>UA78L10ACLP</t>
+  </si>
+  <si>
+    <t>TO-92-3</t>
+  </si>
+  <si>
+    <t>SPX1117M3-L-5-0/TR</t>
+  </si>
+  <si>
+    <t>10.0V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIC5205-5.0YM5-TR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX5028EUT+ </t>
+  </si>
+  <si>
+    <t>MAX5028</t>
+  </si>
+  <si>
+    <t>250MA</t>
+  </si>
+  <si>
+    <t>SOT-23-6</t>
+  </si>
+  <si>
+    <t>TLV70033DDCT</t>
+  </si>
+  <si>
+    <t>TLV70033</t>
+  </si>
+  <si>
+    <t>MIC2289</t>
+  </si>
+  <si>
+    <t>MIC2289-24YML-TR</t>
+  </si>
+  <si>
+    <t>750MA</t>
+  </si>
+  <si>
+    <t>24V</t>
+  </si>
+  <si>
+    <t>LED DRIVER</t>
+  </si>
+  <si>
+    <t>8-MLF</t>
+  </si>
+  <si>
+    <t>FAN48610</t>
+  </si>
+  <si>
+    <t>FAN48610UC50X</t>
+  </si>
+  <si>
+    <t>9-UFBGA</t>
   </si>
 </sst>
 </file>
@@ -373,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -384,17 +511,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -464,6 +602,7 @@
         <name val="Bahnschrift Light SemiCondensed"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -481,6 +620,25 @@
         <name val="Bahnschrift Light SemiCondensed"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -550,17 +708,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F27" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6" headerRowCellStyle="Explanatory Text">
-  <autoFilter ref="A1:F27"/>
-  <sortState ref="A2:F27">
-    <sortCondition ref="A1:A27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G45" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Explanatory Text">
+  <autoFilter ref="A1:G45"/>
+  <sortState ref="A2:G30">
+    <sortCondition ref="A1:A30"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="5"/>
-    <tableColumn id="2" name="Description" dataDxfId="4"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Name" dataDxfId="6"/>
+    <tableColumn id="2" name="Voltage" dataDxfId="5"/>
+    <tableColumn id="7" name="Current" dataDxfId="4"/>
     <tableColumn id="3" name="Part Number" dataDxfId="3"/>
     <tableColumn id="4" name="QTY" dataDxfId="2"/>
-    <tableColumn id="5" name="OTHER" dataDxfId="1"/>
+    <tableColumn id="5" name="Package" dataDxfId="1"/>
     <tableColumn id="6" name="Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -830,531 +989,1035 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="7">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="7">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="7">
+        <v>3</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="3">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="7">
+        <v>3</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="7">
+        <v>9</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="G24" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="3">
+        <v>9</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E26" s="7">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="7">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="7">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="3">
+        <v>5</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="3">
+        <v>6</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="3">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="F39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="3">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="G40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="3">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="F42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="7" t="s">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D43" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="F43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="8">
-        <v>3</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="8">
-        <v>4</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="D45" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="8">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="3">
-        <v>20</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="3">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="8">
-        <v>3</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="8">
-        <v>9</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="3">
-        <v>9</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="8">
-        <v>2</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="8">
-        <v>3</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="3">
-        <v>4</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="3">
-        <v>20</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/VREG.xlsx
+++ b/VREG.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -406,6 +405,21 @@
   </si>
   <si>
     <t>9-UFBGA</t>
+  </si>
+  <si>
+    <t>SP6205</t>
+  </si>
+  <si>
+    <t>SP6205EM5-L-3-3</t>
+  </si>
+  <si>
+    <t>AP2112</t>
+  </si>
+  <si>
+    <t>AP2112K-3.3TRG1</t>
+  </si>
+  <si>
+    <t>600MA</t>
   </si>
 </sst>
 </file>
@@ -708,10 +722,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G45" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Explanatory Text">
-  <autoFilter ref="A1:G45"/>
-  <sortState ref="A2:G30">
-    <sortCondition ref="A1:A30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G47" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Explanatory Text">
+  <autoFilter ref="A1:G47"/>
+  <sortState ref="A2:G45">
+    <sortCondition ref="D1:D45"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Name" dataDxfId="6"/>
@@ -989,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1119,41 +1133,43 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
+      <c r="A6" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>8</v>
+        <v>63</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="E6" s="3">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="1" t="s">
@@ -1165,89 +1181,87 @@
         <v>14</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E10" s="7">
         <v>10</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3">
         <v>4</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>9</v>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1298,153 +1312,157 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="7">
-        <v>3</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="7">
-        <v>3</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>10</v>
+        <v>114</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="7">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E19" s="7">
         <v>4</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E20" s="3">
         <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="3">
-        <v>9</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="7">
-        <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>40</v>
@@ -1455,336 +1473,336 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E21" s="3">
-        <v>20</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="7">
-        <v>3</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>42</v>
+        <v>71</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E24" s="7">
-        <v>9</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="C26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="3">
         <v>20</v>
       </c>
-      <c r="E25" s="3">
-        <v>9</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="7">
-        <v>2</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E28" s="7">
+        <v>10</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="7">
         <v>3</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="3">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="3">
-        <v>20</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>11</v>
+      <c r="F30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="7">
+        <v>9</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="C32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="3">
         <v>2</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="6" t="s">
+      <c r="F33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="7">
-        <v>10</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="7">
-        <v>2</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="E35" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>11</v>
@@ -1792,232 +1810,274 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E36" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>95</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>79</v>
+      <c r="A37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="3">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="7">
+        <v>2</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="3">
-        <v>3</v>
+      <c r="C38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="7">
+        <v>2</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="E39" s="3">
-        <v>8</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F39" s="3"/>
       <c r="G39" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>79</v>
+      <c r="A40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="3">
-        <v>2</v>
+        <v>74</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="7">
+        <v>3</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>11</v>
+        <v>95</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E41" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E42" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="E43" s="3">
-        <v>2</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F43" s="3"/>
       <c r="G43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E44" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E45" s="3">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="7">
+        <v>10</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/VREG.xlsx
+++ b/VREG.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -215,63 +215,9 @@
     <t>Current</t>
   </si>
   <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>300MA</t>
-  </si>
-  <si>
-    <t>500MA</t>
-  </si>
-  <si>
-    <t>100MA</t>
-  </si>
-  <si>
-    <t>800MA</t>
-  </si>
-  <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>1.5A</t>
-  </si>
-  <si>
-    <t>1.7A</t>
-  </si>
-  <si>
-    <t>150MA</t>
-  </si>
-  <si>
-    <t>200MA</t>
-  </si>
-  <si>
-    <t>1.2A</t>
-  </si>
-  <si>
-    <t>4A</t>
-  </si>
-  <si>
-    <t>900MA</t>
-  </si>
-  <si>
-    <t>2.5V</t>
-  </si>
-  <si>
-    <t>3.3V</t>
-  </si>
-  <si>
     <t>ADJ</t>
   </si>
   <si>
-    <t>5.0V</t>
-  </si>
-  <si>
-    <t>3.0V</t>
-  </si>
-  <si>
-    <t>1.8V</t>
-  </si>
-  <si>
     <t>MIC4575</t>
   </si>
   <si>
@@ -323,9 +269,6 @@
     <t>TPS63000</t>
   </si>
   <si>
-    <t>1.6A</t>
-  </si>
-  <si>
     <t>TPS61027</t>
   </si>
   <si>
@@ -338,9 +281,6 @@
     <t>TPS62086RLTR</t>
   </si>
   <si>
-    <t>3A</t>
-  </si>
-  <si>
     <t>7-VFDN</t>
   </si>
   <si>
@@ -356,9 +296,6 @@
     <t>SPX1117M3-L-5-0/TR</t>
   </si>
   <si>
-    <t>10.0V</t>
-  </si>
-  <si>
     <t xml:space="preserve">MIC5205-5.0YM5-TR </t>
   </si>
   <si>
@@ -368,9 +305,6 @@
     <t>MAX5028</t>
   </si>
   <si>
-    <t>250MA</t>
-  </si>
-  <si>
     <t>SOT-23-6</t>
   </si>
   <si>
@@ -386,12 +320,6 @@
     <t>MIC2289-24YML-TR</t>
   </si>
   <si>
-    <t>750MA</t>
-  </si>
-  <si>
-    <t>24V</t>
-  </si>
-  <si>
     <t>LED DRIVER</t>
   </si>
   <si>
@@ -419,7 +347,10 @@
     <t>AP2112K-3.3TRG1</t>
   </si>
   <si>
-    <t>600MA</t>
+    <t>VOLTAGE IS IN: VOLTS</t>
+  </si>
+  <si>
+    <t>CURRENT IS IN: AMPS</t>
   </si>
 </sst>
 </file>
@@ -514,7 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -541,12 +472,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -652,24 +611,6 @@
         <name val="Bahnschrift Light SemiCondensed"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -724,17 +665,17 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G47" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Explanatory Text">
   <autoFilter ref="A1:G47"/>
-  <sortState ref="A2:G45">
-    <sortCondition ref="D1:D45"/>
+  <sortState ref="A2:G47">
+    <sortCondition ref="B1:B47"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Name" dataDxfId="6"/>
     <tableColumn id="2" name="Voltage" dataDxfId="5"/>
-    <tableColumn id="7" name="Current" dataDxfId="4"/>
-    <tableColumn id="3" name="Part Number" dataDxfId="3"/>
-    <tableColumn id="4" name="QTY" dataDxfId="2"/>
-    <tableColumn id="5" name="Package" dataDxfId="1"/>
-    <tableColumn id="6" name="Type" dataDxfId="0"/>
+    <tableColumn id="7" name="Current" dataDxfId="0"/>
+    <tableColumn id="3" name="Part Number" dataDxfId="4"/>
+    <tableColumn id="4" name="QTY" dataDxfId="3"/>
+    <tableColumn id="5" name="Package" dataDxfId="2"/>
+    <tableColumn id="6" name="Type" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1003,17 +944,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="14" customWidth="1"/>
     <col min="4" max="4" width="27" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
@@ -1021,14 +962,14 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="12" t="s">
         <v>62</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -1038,519 +979,525 @@
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="7">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="B5" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E5" s="3">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="B8" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="3">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="1" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
         <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="7">
-        <v>10</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>23</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0.5</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="7">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="7">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="7">
-        <v>2</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="E16" s="3">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3">
         <v>4</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="7">
-        <v>3</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="7">
-        <v>3</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>69</v>
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E18" s="3">
+        <v>50</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="E19" s="7">
-        <v>4</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="A20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="7">
         <v>3</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>11</v>
+      <c r="G20" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="B21" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1.7</v>
+      </c>
       <c r="D21" s="8" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>120</v>
+        <v>83</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C22" s="14">
+        <v>3</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="A23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3">
         <v>5</v>
       </c>
+      <c r="C23" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="E23" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>71</v>
+      <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0.15</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="7">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>40</v>
@@ -1561,523 +1508,523 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0.2</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="E25" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="3">
-        <v>20</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>9</v>
+      <c r="A26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="7">
+        <v>5</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>39</v>
+      <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="E27" s="3">
         <v>10</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5</v>
+      </c>
+      <c r="C29" s="14">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="3">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="7">
-        <v>10</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="7" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5</v>
+      </c>
+      <c r="C30" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="7">
-        <v>2</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="3">
+        <v>5</v>
+      </c>
+      <c r="C31" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="3">
+        <v>6</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="7">
-        <v>3</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="G31" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>67</v>
+        <v>33</v>
+      </c>
+      <c r="B32" s="7">
+        <v>5</v>
+      </c>
+      <c r="C32" s="14">
+        <v>2</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="3">
-        <v>6</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>11</v>
+        <v>58</v>
+      </c>
+      <c r="E32" s="7">
+        <v>2</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="A33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="7">
+        <v>5</v>
+      </c>
+      <c r="C33" s="14">
         <v>2</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>11</v>
+      <c r="D33" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>65</v>
+        <v>86</v>
+      </c>
+      <c r="B34" s="3">
+        <v>10</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0.1</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="E34" s="3">
-        <v>9</v>
-      </c>
-      <c r="F34" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="G34" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>72</v>
+        <v>96</v>
+      </c>
+      <c r="B35" s="3">
+        <v>24</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0.75</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E35" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="7">
+        <v>3</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="3">
-        <v>6</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="3">
+        <v>4</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="7">
-        <v>2</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="7">
-        <v>2</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>9</v>
+      <c r="A38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="3">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="C39" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="E39" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="C40" s="13">
+        <v>0.8</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E40" s="7">
+        <v>10</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="7">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="7">
         <v>3</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="3">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="3">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="F42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="A43" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="3">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3"/>
+      <c r="E43" s="7">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="G43" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="3">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>11</v>
+      <c r="A44" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="7">
+        <v>4</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="3">
-        <v>20</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="C46" s="14">
+        <v>2</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="E46" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="14">
+        <v>4</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="7">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47" s="7">
-        <v>10</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="G47" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/VREG.xlsx
+++ b/VREG.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>CURRENT IS IN: AMPS</t>
+  </si>
+  <si>
+    <t>MAX751</t>
+  </si>
+  <si>
+    <t>MAX751CPA</t>
   </si>
 </sst>
 </file>
@@ -503,25 +509,6 @@
         <name val="Bahnschrift Light SemiCondensed"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -576,6 +563,25 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -663,19 +669,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G47" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Explanatory Text">
-  <autoFilter ref="A1:G47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G48" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Explanatory Text">
+  <autoFilter ref="A1:G48"/>
   <sortState ref="A2:G47">
     <sortCondition ref="B1:B47"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Name" dataDxfId="6"/>
     <tableColumn id="2" name="Voltage" dataDxfId="5"/>
-    <tableColumn id="7" name="Current" dataDxfId="0"/>
-    <tableColumn id="3" name="Part Number" dataDxfId="4"/>
-    <tableColumn id="4" name="QTY" dataDxfId="3"/>
-    <tableColumn id="5" name="Package" dataDxfId="2"/>
-    <tableColumn id="6" name="Type" dataDxfId="1"/>
+    <tableColumn id="7" name="Current" dataDxfId="4"/>
+    <tableColumn id="3" name="Part Number" dataDxfId="3"/>
+    <tableColumn id="4" name="QTY" dataDxfId="2"/>
+    <tableColumn id="5" name="Package" dataDxfId="1"/>
+    <tableColumn id="6" name="Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -944,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2027,6 +2033,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="7">
+        <v>5</v>
+      </c>
+      <c r="C48" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="7">
+        <v>6</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VREG.xlsx
+++ b/VREG.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -357,6 +357,15 @@
   </si>
   <si>
     <t>MAX751CPA</t>
+  </si>
+  <si>
+    <t>ZXLB1600</t>
+  </si>
+  <si>
+    <t>ZXLB1600X10TA</t>
+  </si>
+  <si>
+    <t>MSOP-10</t>
   </si>
 </sst>
 </file>
@@ -669,10 +678,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G48" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Explanatory Text">
-  <autoFilter ref="A1:G48"/>
-  <sortState ref="A2:G47">
-    <sortCondition ref="B1:B47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G49" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Explanatory Text">
+  <autoFilter ref="A1:G49"/>
+  <sortState ref="A2:G48">
+    <sortCondition ref="A1:A48"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Name" dataDxfId="6"/>
@@ -950,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -992,23 +1001,25 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="C2" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="7">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -1016,25 +1027,25 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1.8</v>
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.3</v>
       </c>
       <c r="C3" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="7">
-        <v>9</v>
-      </c>
-      <c r="F3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1043,16 +1054,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="B4" s="7">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="C4" s="13">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="E4" s="7">
         <v>10</v>
@@ -1066,160 +1077,154 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2.5</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C5" s="14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C6" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>56</v>
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="7">
-        <v>3.3</v>
+      <c r="A7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
       </c>
       <c r="C7" s="14">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2</v>
+        <v>101</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>50</v>
+      <c r="A8" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="3">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>38</v>
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="C9" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
+      <c r="A10" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>30</v>
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1" t="s">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="7">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1246,243 +1251,249 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3.3</v>
+        <v>33</v>
+      </c>
+      <c r="B13" s="7">
+        <v>5</v>
       </c>
       <c r="C13" s="14">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3">
+        <v>58</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="B14" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0.5</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="14">
+        <v>2</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="E14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C15" s="13">
-        <v>0.6</v>
+        <v>33</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="14">
+        <v>2</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="E15" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="3">
-        <v>3.3</v>
+        <v>92</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C16" s="14">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="7">
+        <v>5</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="7">
         <v>6</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="C17" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="C18" s="14">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="3">
-        <v>50</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>11</v>
+      <c r="F18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C19" s="13">
-        <v>1.2</v>
+        <v>43</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1.5</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E19" s="7">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>77</v>
+        <v>3</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C20" s="14">
+        <v>43</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="13">
         <v>1.5</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>54</v>
+      <c r="D20" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="E20" s="7">
-        <v>3</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="3">
-        <v>3.3</v>
+      <c r="A21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C21" s="14">
-        <v>1.7</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="1" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="7">
+        <v>4</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B22" s="3">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="C22" s="14">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>13</v>
+      <c r="A23" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="C23" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>8</v>
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E23" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="1" t="s">
@@ -1491,399 +1502,401 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C24" s="14">
-        <v>0.15</v>
+        <v>0.75</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E24" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B25" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B26" s="7">
-        <v>5</v>
-      </c>
-      <c r="C26" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>67</v>
+        <v>3.3</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E26" s="7">
-        <v>4</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>14</v>
+      <c r="A27" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B27" s="3">
         <v>5</v>
       </c>
       <c r="C27" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>12</v>
+        <v>0.15</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="E27" s="3">
-        <v>10</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B28" s="3">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="C28" s="14">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="E28" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3">
         <v>5</v>
       </c>
       <c r="C29" s="14">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="E29" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="7">
+        <v>10</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C32" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="7">
         <v>3</v>
       </c>
-      <c r="B30" s="3">
-        <v>5</v>
-      </c>
-      <c r="C30" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="3">
-        <v>2</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="3">
-        <v>5</v>
-      </c>
-      <c r="C31" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="3">
-        <v>6</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="7">
-        <v>5</v>
-      </c>
-      <c r="C32" s="14">
-        <v>2</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="7">
-        <v>2</v>
-      </c>
       <c r="F32" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="B33" s="7">
-        <v>5</v>
-      </c>
-      <c r="C33" s="14">
-        <v>2</v>
+        <v>3.3</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0.5</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="E33" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G33" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="3">
-        <v>10</v>
-      </c>
-      <c r="C34" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="3">
-        <v>8</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="F34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="B35" s="3">
-        <v>24</v>
+        <v>3.3</v>
       </c>
       <c r="C35" s="14">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E35" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>63</v>
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5</v>
       </c>
       <c r="C36" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="7">
-        <v>3</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="6" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
+      </c>
+      <c r="B37" s="3">
+        <v>3.3</v>
       </c>
       <c r="C37" s="14">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="E37" s="3">
-        <v>4</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>93</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F37" s="3"/>
       <c r="G37" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>63</v>
+        <v>95</v>
+      </c>
+      <c r="B38" s="3">
+        <v>3.3</v>
       </c>
       <c r="C38" s="14">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="E38" s="3">
-        <v>4</v>
-      </c>
-      <c r="F38" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G38" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>63</v>
+        <v>81</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5</v>
       </c>
       <c r="C39" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>16</v>
+        <v>1.5</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="E39" s="3">
+        <v>6</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="13">
-        <v>0.8</v>
+      <c r="C40" s="14">
+        <v>1.2</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E40" s="7">
-        <v>10</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="14">
+        <v>70</v>
+      </c>
+      <c r="B41" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C41" s="13">
         <v>1.2</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E41" s="7">
         <v>2</v>
@@ -1896,72 +1909,70 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>63</v>
+      <c r="A42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5</v>
       </c>
       <c r="C42" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="7">
-        <v>3</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>10</v>
+        <v>1.2</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>75</v>
+      <c r="C43" s="14">
+        <v>4</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="E43" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>10</v>
+        <v>77</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>63</v>
+      <c r="A44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="3">
+        <v>3.3</v>
       </c>
       <c r="C44" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="7">
-        <v>4</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1988,71 +1999,92 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="7" t="s">
+      <c r="A46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C46" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="3">
+        <v>10</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="3">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C48" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="3">
+        <v>20</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="14">
-        <v>2</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="7">
-        <v>2</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="14">
-        <v>4</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="7">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48" s="7">
-        <v>5</v>
-      </c>
-      <c r="C48" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="7">
-        <v>6</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" s="6" t="s">
+      <c r="C49" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="7">
+        <v>1</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>9</v>
       </c>
     </row>

--- a/VREG.xlsx
+++ b/VREG.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -366,6 +366,15 @@
   </si>
   <si>
     <t>MSOP-10</t>
+  </si>
+  <si>
+    <t>LM2595S</t>
+  </si>
+  <si>
+    <t>LM2595S-ADJ/NOPB</t>
+  </si>
+  <si>
+    <t>TO-263-6</t>
   </si>
 </sst>
 </file>
@@ -678,8 +687,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G49" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Explanatory Text">
-  <autoFilter ref="A1:G49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G50" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Explanatory Text">
+  <autoFilter ref="A1:G50"/>
   <sortState ref="A2:G48">
     <sortCondition ref="A1:A48"/>
   </sortState>
@@ -959,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2088,6 +2097,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="13">
+        <v>1</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VREG.xlsx
+++ b/VREG.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -375,13 +376,28 @@
   </si>
   <si>
     <t>TO-263-6</t>
+  </si>
+  <si>
+    <t>TS30013-M033QFNR</t>
+  </si>
+  <si>
+    <t>TS3001</t>
+  </si>
+  <si>
+    <t>BUY THIS</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>QFN-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +443,13 @@
       <color theme="1"/>
       <name val="Bahnschrift Light SemiCondensed"/>
     </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -469,7 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -505,12 +528,33 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -687,19 +731,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G50" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Explanatory Text">
-  <autoFilter ref="A1:G50"/>
-  <sortState ref="A2:G48">
-    <sortCondition ref="A1:A48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H51" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Explanatory Text">
+  <autoFilter ref="A1:H51"/>
+  <sortState ref="A2:G50">
+    <sortCondition descending="1" ref="C1:C50"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Name" dataDxfId="6"/>
-    <tableColumn id="2" name="Voltage" dataDxfId="5"/>
-    <tableColumn id="7" name="Current" dataDxfId="4"/>
-    <tableColumn id="3" name="Part Number" dataDxfId="3"/>
-    <tableColumn id="4" name="QTY" dataDxfId="2"/>
-    <tableColumn id="5" name="Package" dataDxfId="1"/>
-    <tableColumn id="6" name="Type" dataDxfId="0"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Name" dataDxfId="7"/>
+    <tableColumn id="2" name="Voltage" dataDxfId="6"/>
+    <tableColumn id="7" name="Current" dataDxfId="5"/>
+    <tableColumn id="3" name="Part Number" dataDxfId="4"/>
+    <tableColumn id="4" name="QTY" dataDxfId="3"/>
+    <tableColumn id="5" name="Package" dataDxfId="2"/>
+    <tableColumn id="6" name="Type" dataDxfId="1"/>
+    <tableColumn id="8" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -968,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -983,7 +1028,8 @@
     <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.28515625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -1008,1116 +1054,1194 @@
       <c r="G1" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="H1" s="15" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2.5</v>
+      <c r="A2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C2" s="14">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="3">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7"/>
       <c r="I2" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3">
         <v>3.3</v>
       </c>
       <c r="C3" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="E3" s="3">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H3" s="7"/>
       <c r="I3" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>105</v>
+      <c r="A4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B4" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>106</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="E4" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="C6" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="E7" s="3">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="B9" s="7">
         <v>5</v>
       </c>
       <c r="C9" s="13">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="E9" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3">
-        <v>5</v>
+      <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C10" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>66</v>
+        <v>1.5</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="7">
         <v>3.3</v>
       </c>
-      <c r="C12" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="C13" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="7">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="14">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="C14" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="7">
-        <v>5</v>
-      </c>
-      <c r="C14" s="14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="7">
-        <v>2</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="14">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="7">
         <v>2</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>34</v>
+      <c r="F15" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="A16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="7">
-        <v>3</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="3">
+        <v>50</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="3">
         <v>5</v>
       </c>
-      <c r="C18" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="3">
         <v>6</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="F20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="7">
-        <v>3</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="14">
-        <v>1.5</v>
+      <c r="C21" s="13">
+        <v>1</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3">
         <v>4</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="3">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="7">
+        <v>5</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="7">
+        <v>4</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="7">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="7">
+        <v>9</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="3">
+        <v>24</v>
+      </c>
+      <c r="C30" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="3">
         <v>3</v>
       </c>
-      <c r="C22" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="F30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="7">
+        <v>10</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="3">
+      <c r="G31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="3">
+        <v>9</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="3">
         <v>3.3</v>
       </c>
-      <c r="C23" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="3">
-        <v>9</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="3">
-        <v>24</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="3">
+      <c r="C33" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="7">
         <v>3.3</v>
       </c>
-      <c r="C25" s="14">
-        <v>1.7</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C26" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="7">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="C34" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5</v>
-      </c>
-      <c r="C27" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="C28" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="3">
-        <v>20</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="3">
-        <v>5</v>
-      </c>
-      <c r="C29" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="3">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="C30" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="7">
-        <v>10</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="C31" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="7">
-        <v>2</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C32" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="7">
-        <v>3</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C33" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="C34" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="7">
-        <v>9</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="G34" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B35" s="3">
         <v>3.3</v>
       </c>
       <c r="C35" s="14">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="E35" s="3">
-        <v>6</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F35" s="3"/>
       <c r="G35" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="3">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C36" s="14">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E36" s="3">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B37" s="3">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="C37" s="14">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E37" s="3">
-        <v>9</v>
-      </c>
-      <c r="F37" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B38" s="3">
         <v>3.3</v>
       </c>
       <c r="C38" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="3">
+        <v>9</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="7">
+        <v>2</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="3">
+        <v>4</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C41" s="14">
         <v>0.2</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="3">
-        <v>2</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="D41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="3">
+        <v>20</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="3">
-        <v>5</v>
-      </c>
-      <c r="C39" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="3">
-        <v>6</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="7">
-        <v>2</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C41" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="7">
-        <v>2</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B42" s="3">
         <v>5</v>
       </c>
       <c r="C42" s="14">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E42" s="3">
-        <v>2</v>
-      </c>
-      <c r="F42" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G42" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>63</v>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="3">
+        <v>3.3</v>
       </c>
       <c r="C43" s="14">
-        <v>4</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="7">
-        <v>3</v>
+        <v>0.2</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="B44" s="3">
         <v>3.3</v>
       </c>
       <c r="C44" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="3">
+        <v>20</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="7">
         <v>3</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="F45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C46" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="7">
+        <v>2</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="3">
+        <v>5</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="C48" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="7">
+        <v>10</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="3">
+        <v>5</v>
+      </c>
+      <c r="C49" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="3">
+        <v>10</v>
+      </c>
+      <c r="C50" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="3">
+        <v>8</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C51" s="13">
         <v>3</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="D51" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="14">
-        <v>1.6</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="3">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="C46" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="3">
-        <v>4</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="3">
-        <v>10</v>
-      </c>
-      <c r="C47" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="3">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="C48" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="3">
-        <v>20</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E49" s="7">
-        <v>1</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="13">
-        <v>1</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="7">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>55</v>
+      <c r="H51" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/VREG.xlsx
+++ b/VREG.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -733,8 +732,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H51" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Explanatory Text">
   <autoFilter ref="A1:H51"/>
-  <sortState ref="A2:G50">
-    <sortCondition descending="1" ref="C1:C50"/>
+  <sortState ref="A2:H51">
+    <sortCondition ref="B1:B51"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="Name" dataDxfId="7"/>
@@ -1015,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1060,25 +1059,25 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1.8</v>
       </c>
       <c r="C2" s="14">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E2" s="7">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>77</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="1" t="s">
@@ -1086,26 +1085,24 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="C3" s="14">
-        <v>3</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>55</v>
+      <c r="A3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="1" t="s">
@@ -1114,117 +1111,117 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="7">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2.5</v>
       </c>
       <c r="C4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7">
-        <v>5</v>
-      </c>
-      <c r="C5" s="14">
-        <v>2</v>
+        <v>2.5</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.15</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E5" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>63</v>
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
       </c>
       <c r="C6" s="14">
-        <v>2</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>9</v>
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B7" s="3">
         <v>3.3</v>
       </c>
       <c r="C7" s="14">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3.3</v>
       </c>
       <c r="C8" s="14">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1232,237 +1229,231 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="B9" s="7">
-        <v>5</v>
-      </c>
-      <c r="C9" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="C9" s="14">
         <v>1.5</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="E9" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="14">
-        <v>1.5</v>
+        <v>70</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1.2</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E10" s="7">
-        <v>3</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="7">
         <v>10</v>
       </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="F14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3">
         <v>4</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C13" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="7">
-        <v>3</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5</v>
-      </c>
-      <c r="C14" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="3">
-        <v>6</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="7">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>9</v>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="B16" s="7">
         <v>3.3</v>
       </c>
       <c r="C16" s="13">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="E16" s="7">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>77</v>
+        <v>1</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="C17" s="14">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="C18" s="14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E18" s="3">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1470,329 +1461,333 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B19" s="3">
         <v>3.3</v>
       </c>
       <c r="C19" s="14">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E19" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="C20" s="14">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E20" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="13">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1</v>
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3">
+        <v>20</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="3">
+      <c r="A22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="7">
         <v>3.3</v>
       </c>
       <c r="C22" s="14">
-        <v>0.9</v>
+        <v>0.15</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G22" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="B23" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C23" s="13">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="7">
         <v>5</v>
       </c>
-      <c r="C23" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="7">
-        <v>4</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3">
-        <v>5</v>
-      </c>
       <c r="C24" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="3">
-        <v>10</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="13">
-        <v>0.8</v>
+        <v>33</v>
+      </c>
+      <c r="B25" s="7">
+        <v>5</v>
+      </c>
+      <c r="C25" s="14">
+        <v>2</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E25" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="B26" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="C26" s="14">
-        <v>0.8</v>
+        <v>5</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1.5</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="E26" s="7">
+        <v>6</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B27" s="3">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="C27" s="14">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E27" s="3">
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
       </c>
       <c r="C28" s="14">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="13">
+      <c r="A29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5</v>
+      </c>
+      <c r="C29" s="14">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="3">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="7">
+        <v>5</v>
+      </c>
+      <c r="C30" s="13">
         <v>0.8</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="3">
-        <v>24</v>
-      </c>
-      <c r="C30" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="3">
-        <v>3</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>98</v>
+      <c r="D30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="7">
+        <v>4</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C31" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="A31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="3">
         <v>10</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="6" t="s">
+      <c r="F31" s="3"/>
+      <c r="G31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>41</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5</v>
       </c>
       <c r="C32" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>16</v>
+        <v>0.8</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="E32" s="3">
-        <v>9</v>
-      </c>
-      <c r="F32" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G32" s="1" t="s">
         <v>11</v>
       </c>
@@ -1800,65 +1795,67 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B33" s="3">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="C33" s="14">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E33" s="3">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G33" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C34" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="7">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="3">
         <v>1</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>21</v>
+      <c r="A35" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B35" s="3">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="C35" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>20</v>
+        <v>0.1</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="1" t="s">
@@ -1868,21 +1865,23 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>63</v>
+        <v>86</v>
+      </c>
+      <c r="B36" s="3">
+        <v>10</v>
       </c>
       <c r="C36" s="14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="E36" s="3">
-        <v>4</v>
-      </c>
-      <c r="F36" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>11</v>
       </c>
@@ -1890,303 +1889,305 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="B37" s="3">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C37" s="14">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="E37" s="3">
         <v>3</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="3">
-        <v>3.3</v>
+      <c r="A38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C38" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="3">
+        <v>4</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="7">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="C39" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>73</v>
+        <v>33</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="14">
+        <v>2</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E39" s="7">
         <v>2</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="G39" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C40" s="14">
-        <v>0.25</v>
+        <v>1.6</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E40" s="3">
+        <v>5</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="7">
+        <v>3</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="7">
         <v>4</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="F43" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="7">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="C41" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="3">
-        <v>20</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="3">
-        <v>5</v>
-      </c>
-      <c r="C42" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="3">
-        <v>10</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="C43" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="3">
-        <v>2</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="C44" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="3">
-        <v>20</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="14">
-        <v>0.15</v>
+      <c r="C45" s="13">
+        <v>1</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="E45" s="7">
-        <v>3</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C46" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="E46" s="7">
-        <v>2</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="3">
-        <v>5</v>
-      </c>
-      <c r="C47" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="A47" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="7">
         <v>1</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>11</v>
+      <c r="F47" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="C48" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="7">
-        <v>10</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" s="6" t="s">
+      <c r="A48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="3">
+        <v>9</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="3">
-        <v>5</v>
+      <c r="A49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C49" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>8</v>
+        <v>0.3</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E49" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="1" t="s">
@@ -2196,53 +2197,51 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" s="3">
-        <v>10</v>
+        <v>92</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C50" s="14">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E50" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C51" s="13">
+        <v>59</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="7">
         <v>3</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="7">
-        <v>0</v>
-      </c>
       <c r="F51" s="7" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>119</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H51" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VREG.xlsx
+++ b/VREG.xlsx
@@ -733,7 +733,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H51" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Explanatory Text">
   <autoFilter ref="A1:H51"/>
   <sortState ref="A2:H51">
-    <sortCondition ref="B1:B51"/>
+    <sortCondition ref="A1:A51"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="Name" dataDxfId="7"/>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1058,25 +1058,25 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1.8</v>
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.5</v>
       </c>
       <c r="C2" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="7">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="7"/>
@@ -1085,23 +1085,25 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="7">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6" t="s">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="7"/>
@@ -1110,72 +1112,68 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="C4" s="14">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="3">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="A4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="7">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C6" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>56</v>
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1183,540 +1181,540 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B7" s="3">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E7" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>64</v>
+      <c r="A8" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="3">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="14">
-        <v>1.7</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>5</v>
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B9" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1.5</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.8</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E9" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="7">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C10" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="7">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="C11" s="14">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="C12" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3">
         <v>3.3</v>
       </c>
       <c r="C13" s="14">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3">
-        <v>6</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>105</v>
+      <c r="A14" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>106</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="E14" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3.3</v>
+      <c r="A15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="7">
+        <v>5</v>
       </c>
       <c r="C15" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C16" s="13">
-        <v>0.5</v>
+        <v>33</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="14">
+        <v>2</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="E16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3">
-        <v>3.3</v>
+        <v>92</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C17" s="14">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="3">
-        <v>3.3</v>
+      <c r="A18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C18" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="7">
+        <v>5</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="7">
+        <v>6</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="C19" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="3">
-        <v>20</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3.3</v>
+      <c r="A20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C20" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>11</v>
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="7">
+        <v>3</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="C21" s="14">
-        <v>0.2</v>
+      <c r="A21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1.5</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="3">
-        <v>20</v>
+        <v>75</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="7">
-        <v>3.3</v>
+        <v>43</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C22" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>36</v>
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E22" s="7">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C23" s="13">
-        <v>3</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>119</v>
-      </c>
+      <c r="G23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="7">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="3">
+        <v>9</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C26" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="14">
+      <c r="E26" s="3">
         <v>2</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="F26" s="3"/>
+      <c r="G26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="7">
         <v>2</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="7">
-        <v>5</v>
-      </c>
-      <c r="C25" s="14">
-        <v>2</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="7">
-        <v>2</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="7">
-        <v>5</v>
-      </c>
-      <c r="C26" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="7">
-        <v>6</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5</v>
-      </c>
-      <c r="C27" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="3">
-        <v>6</v>
-      </c>
       <c r="F27" s="3" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
       </c>
       <c r="C28" s="14">
-        <v>1.2</v>
+        <v>0.15</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="E28" s="3">
-        <v>2</v>
-      </c>
-      <c r="F28" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="C29" s="14">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="E29" s="3">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>9</v>
@@ -1724,163 +1722,165 @@
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="7">
+      <c r="A30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="3">
         <v>5</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="3">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="7">
+        <v>10</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="7">
+        <v>2</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C33" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="7">
+        <v>3</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C34" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="C35" s="14">
         <v>0.8</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="7">
-        <v>4</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="3">
-        <v>5</v>
-      </c>
-      <c r="C31" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="3">
-        <v>10</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>5</v>
-      </c>
-      <c r="C32" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="D35" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="7">
+        <v>9</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="3">
-        <v>5</v>
-      </c>
-      <c r="C33" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="3">
-        <v>10</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="3">
-        <v>5</v>
-      </c>
-      <c r="C34" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="3">
-        <v>5</v>
-      </c>
-      <c r="C35" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3">
-        <v>8</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="B36" s="3">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="C36" s="14">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E36" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>11</v>
@@ -1889,187 +1889,183 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="B37" s="3">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C37" s="14">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E37" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>63</v>
+      <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="3">
+        <v>3.3</v>
       </c>
       <c r="C38" s="14">
-        <v>4</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="7">
-        <v>3</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="6" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="3">
         <v>9</v>
       </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>63</v>
+      <c r="A39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="3">
+        <v>3.3</v>
       </c>
       <c r="C39" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="3">
         <v>2</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="7">
-        <v>2</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>9</v>
+      <c r="F39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>63</v>
+        <v>81</v>
+      </c>
+      <c r="B40" s="3">
+        <v>5</v>
       </c>
       <c r="C40" s="14">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E40" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C41" s="14">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E41" s="7">
-        <v>3</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="B42" s="7">
+        <v>3.3</v>
       </c>
       <c r="C42" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>75</v>
+        <v>1.2</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="E42" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>10</v>
+        <v>77</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>63</v>
+      <c r="A43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3">
+        <v>5</v>
       </c>
       <c r="C43" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>10</v>
+      <c r="E43" s="3">
+        <v>2</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C44" s="14">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E44" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>77</v>
@@ -2080,23 +2076,23 @@
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="13">
-        <v>1</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="7">
-        <v>1</v>
+      <c r="A45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C45" s="14">
+        <v>3</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>55</v>
@@ -2104,92 +2100,96 @@
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="7" t="s">
+      <c r="A46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="7">
+      <c r="C46" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" s="7">
-        <v>1</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>9</v>
+      <c r="A47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="3">
-        <v>9</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="7"/>
+      <c r="A48" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C48" s="13">
+        <v>3</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>63</v>
+        <v>86</v>
+      </c>
+      <c r="B49" s="3">
+        <v>10</v>
       </c>
       <c r="C49" s="14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="E49" s="3">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="G49" s="1" t="s">
         <v>11</v>
       </c>
@@ -2197,49 +2197,49 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>63</v>
+        <v>29</v>
+      </c>
+      <c r="B50" s="3">
+        <v>3.3</v>
       </c>
       <c r="C50" s="14">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="E50" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="14">
-        <v>0.15</v>
+      <c r="C51" s="13">
+        <v>0.8</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="E51" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H51" s="7"/>
     </row>
